--- a/Server/public/Product.xlsx
+++ b/Server/public/Product.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="4294939908" windowHeight="17232"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8592"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -21,79 +21,78 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <x:si>
+    <x:t>여성 롱 후드 플리스 원피스 필라델피아</x:t>
+  </x:si>
+  <x:si>
     <x:t>36000291452 (바코드 넘버)</x:t>
   </x:si>
   <x:si>
+    <x:t>의류 (해당 브랜드에 등록된 카테고리)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3FOLPK05571L (해당 브랜드에 등록된 스타일 코드)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카테고리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품 이미지 URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브랜드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시즌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬러</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스타일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사이즈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROSE PINK  (졔품컬러)</x:t>
+  </x:si>
+  <x:si>
     <x:t>미등록시 제품사진이 보이지않음</x:t>
   </x:si>
   <x:si>
-    <x:t>예시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브랜드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시즌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬러</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스타일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사이즈</x:t>
-  </x:si>
-  <x:si>
     <x:t>MLB (해당 브랜드)</x:t>
   </x:si>
   <x:si>
-    <x:t>제품 이미지 URL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3FOLPK05571L (해당 브랜드에 등록된 스타일 코드)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ROSE PINK  (졔품컬러)</x:t>
-  </x:si>
-  <x:si>
     <x:t>2021FW (해당 브랜드에 등록된  시즌 이름)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카테고리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여성 롱 후드 플리스 원피스 필라델피아</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의류 (해당 브랜드에 등록된 카테고리)</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="2">
-    <x:numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
-    <x:numFmt numFmtId="165" formatCode="0_ "/>
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="164" formatCode="0_ "/>
   </x:numFmts>
   <x:fonts count="13">
     <x:font>
@@ -128,48 +127,28 @@
     </x:font>
     <x:font>
       <x:name val="맑은 고딕"/>
-      <x:sz val="14"/>
+      <x:sz val="11"/>
       <x:color rgb="ff000000"/>
       <x:b val="1"/>
     </x:font>
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
+      <x:color rgb="ff0000ff"/>
       <x:b val="1"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ffff0000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ffff0000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
-      <x:color rgb="ff0000ff"/>
+      <x:color rgb="ff00b0f0"/>
       <x:b val="1"/>
     </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
           <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff00b0f0"/>
+          <x:sz val="12"/>
+          <x:color rgb="ffff0000"/>
           <x:b val="1"/>
           <hs:size val="100"/>
           <hs:ratio val="100"/>
@@ -180,18 +159,12 @@
       <mc:Fallback>
         <x:font>
           <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff00b0f0"/>
+          <x:sz val="12"/>
+          <x:color rgb="ffff0000"/>
           <x:b val="1"/>
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="12"/>
-      <x:color rgb="ffff0000"/>
-      <x:b val="1"/>
-    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -214,6 +187,17 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="14"/>
+      <x:color rgb="ff000000"/>
+      <x:b val="1"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ffff0000"/>
+    </x:font>
   </x:fonts>
   <x:fills count="6">
     <x:fill>
@@ -221,12 +205,6 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="gray125"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="ffff00ff"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
@@ -243,6 +221,12 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="ffecd174"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffff00ff"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
@@ -309,6 +293,9 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
@@ -324,39 +311,13 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -376,77 +337,39 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="41" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="41" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="top"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="top"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="41" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -456,86 +379,57 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="top"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="41" fontId="8" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="41" fontId="8" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="41" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="41" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+        <x:xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -553,14 +447,144 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="top"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="top"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="top"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="top"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="41" fontId="6" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="41" fontId="6" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="right" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="right" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="41" fontId="12" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="right" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="41" fontId="12" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="right" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="41" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="right" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="41" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="right" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="41" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="right" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="41" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="right" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="right" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="right" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1258,139 +1282,140 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:M4"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E19" activeCellId="0" sqref="E19:E19"/>
+    <x:sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="L7" activeCellId="0" sqref="L7:L7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="4.69921875" style="25" customWidth="1"/>
-    <x:col min="2" max="2" width="26.5" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="20.1015625" customWidth="1"/>
-    <x:col min="4" max="4" width="50.3984375" customWidth="1"/>
-    <x:col min="5" max="5" width="48.5" style="1" customWidth="1"/>
-    <x:col min="6" max="6" width="34.1015625" style="1" customWidth="1"/>
-    <x:col min="7" max="7" width="36.19921875" style="1" customWidth="1"/>
-    <x:col min="8" max="8" width="21.1015625" customWidth="1"/>
-    <x:col min="9" max="9" width="8.796875" bestFit="1" customWidth="1"/>
-    <x:col min="13" max="13" width="35.80078125" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="4.69921875" style="15" customWidth="1"/>
+    <x:col min="2" max="2" width="26.5" style="18" customWidth="1"/>
+    <x:col min="3" max="3" width="20.1015625" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="50.3984375" style="1" customWidth="1"/>
+    <x:col min="5" max="5" width="48.5" style="2" customWidth="1"/>
+    <x:col min="6" max="6" width="34.1015625" style="2" customWidth="1"/>
+    <x:col min="7" max="7" width="36.19921875" style="2" customWidth="1"/>
+    <x:col min="8" max="8" width="21.1015625" style="1" customWidth="1"/>
+    <x:col min="9" max="9" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="11" max="12" width="9.61328125" style="22" bestFit="1" customWidth="1"/>
+    <x:col min="13" max="13" width="35.80078125" style="2" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="2:13" ht="20.649999999999999">
-      <x:c r="B1" s="2" t="s">
+      <x:c r="B1" s="17" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C1" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1" s="4" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C1" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D1" s="4" t="s">
-        <x:v>6</x:v>
-      </x:c>
       <x:c r="E1" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F1" s="4" t="s">
-        <x:v>19</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H1" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="I1" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="J1" s="4" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="K1" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="L1" s="5" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="K1" s="21" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="L1" s="21" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="M1" s="8" t="s">
         <x:v>5</x:v>
-      </x:c>
-      <x:c r="M1" s="15" t="s">
-        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:13" ht="17.800000000000001">
-      <x:c r="A2" s="26" t="s">
+      <x:c r="A2" s="16" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B2" s="19" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C2" s="11" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D2" s="12" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E2" s="13" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F2" s="13" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B2" s="18" t="s">
+      <x:c r="G2" s="13" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="19" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D2" s="20" t="s">
+      <x:c r="H2" s="13" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="E2" s="21" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="F2" s="21" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G2" s="21" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H2" s="21" t="s">
+      <x:c r="I2" s="13">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="J2" s="13" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="I2" s="21">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="J2" s="21" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="K2" s="22">
+      <x:c r="K2" s="23">
         <x:v>45000</x:v>
       </x:c>
-      <x:c r="L2" s="23">
+      <x:c r="L2" s="25">
         <x:v>20000</x:v>
       </x:c>
-      <x:c r="M2" s="24" t="s">
-        <x:v>1</x:v>
+      <x:c r="M2" s="14" t="s">
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:13" ht="17.800000000000001">
-      <x:c r="A3" s="25">
+      <x:c r="A3" s="15">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B3" s="9"/>
-      <x:c r="C3" s="10"/>
-      <x:c r="D3" s="17"/>
-      <x:c r="E3" s="6"/>
-      <x:c r="F3" s="6"/>
-      <x:c r="G3" s="6"/>
-      <x:c r="H3" s="6"/>
-      <x:c r="I3" s="6"/>
-      <x:c r="J3" s="6"/>
-      <x:c r="K3" s="7"/>
-      <x:c r="L3" s="8"/>
-      <x:c r="M3" s="16"/>
+      <x:c r="B3" s="20"/>
+      <x:c r="C3" s="6"/>
+      <x:c r="D3" s="10"/>
+      <x:c r="E3" s="5"/>
+      <x:c r="F3" s="5"/>
+      <x:c r="G3" s="5"/>
+      <x:c r="H3" s="5"/>
+      <x:c r="I3" s="5"/>
+      <x:c r="J3" s="5"/>
+      <x:c r="K3" s="24"/>
+      <x:c r="L3" s="26"/>
+      <x:c r="M3" s="9"/>
     </x:row>
     <x:row r="4" spans="1:13" ht="17.800000000000001">
-      <x:c r="A4" s="25">
+      <x:c r="A4" s="15">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B4" s="11"/>
-      <x:c r="C4" s="12"/>
-      <x:c r="D4" s="17"/>
-      <x:c r="E4" s="6"/>
-      <x:c r="F4" s="6"/>
-      <x:c r="G4" s="6"/>
-      <x:c r="H4" s="6"/>
-      <x:c r="I4" s="6"/>
-      <x:c r="J4" s="6"/>
-      <x:c r="K4" s="13"/>
-      <x:c r="L4" s="14"/>
-      <x:c r="M4" s="16"/>
+      <x:c r="B4" s="20"/>
+      <x:c r="C4" s="7"/>
+      <x:c r="D4" s="10"/>
+      <x:c r="E4" s="5"/>
+      <x:c r="F4" s="5"/>
+      <x:c r="G4" s="5"/>
+      <x:c r="H4" s="5"/>
+      <x:c r="I4" s="5"/>
+      <x:c r="J4" s="5"/>
+      <x:c r="K4" s="24"/>
+      <x:c r="L4" s="26"/>
+      <x:c r="M4" s="9"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/Server/public/Product.xlsx
+++ b/Server/public/Product.xlsx
@@ -19,72 +19,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <x:si>
+    <x:t>org_price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3FOLPK05571L (해당 브랜드에 등록된 스타일 코드)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>style</x:t>
+  </x:si>
+  <x:si>
+    <x:t>size</x:t>
+  </x:si>
+  <x:si>
+    <x:t>image_url</x:t>
+  </x:si>
+  <x:si>
+    <x:t>product_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카테고리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품 이미지 URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시즌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사이즈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스타일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬러</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브랜드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미등록시 제품사진이 보이지않음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROSE PINK  (졔품컬러)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021FW (해당 브랜드에 등록된  시즌 이름)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MLB (해당 브랜드)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의류 (해당 브랜드에 등록된 카테고리)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36000291452 (바코드 넘버)</x:t>
+  </x:si>
   <x:si>
     <x:t>여성 롱 후드 플리스 원피스 필라델피아</x:t>
   </x:si>
   <x:si>
-    <x:t>36000291452 (바코드 넘버)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의류 (해당 브랜드에 등록된 카테고리)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3FOLPK05571L (해당 브랜드에 등록된 스타일 코드)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카테고리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품 이미지 URL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브랜드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시즌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬러</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스타일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사이즈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ROSE PINK  (졔품컬러)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미등록시 제품사진이 보이지않음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MLB (해당 브랜드)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021FW (해당 브랜드에 등록된  시즌 이름)</x:t>
+    <x:t>color</x:t>
+  </x:si>
+  <x:si>
+    <x:t>barcode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>degree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tag_price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>brand</x:t>
+  </x:si>
+  <x:si>
+    <x:t>season</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -143,12 +179,24 @@
       <x:color rgb="ff00b0f0"/>
       <x:b val="1"/>
     </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="12"/>
+      <x:color rgb="ffff0000"/>
+      <x:b val="1"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ffff0000"/>
+      <x:b val="1"/>
+    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
           <x:name val="맑은 고딕"/>
-          <x:sz val="12"/>
-          <x:color rgb="ffff0000"/>
+          <x:sz val="14"/>
+          <x:color rgb="ff000000"/>
           <x:b val="1"/>
           <hs:size val="100"/>
           <hs:ratio val="100"/>
@@ -159,8 +207,8 @@
       <mc:Fallback>
         <x:font>
           <x:name val="맑은 고딕"/>
-          <x:sz val="12"/>
-          <x:color rgb="ffff0000"/>
+          <x:sz val="14"/>
+          <x:color rgb="ff000000"/>
           <x:b val="1"/>
         </x:font>
       </mc:Fallback>
@@ -171,7 +219,6 @@
           <x:name val="맑은 고딕"/>
           <x:sz val="11"/>
           <x:color rgb="ffff0000"/>
-          <x:b val="1"/>
           <hs:size val="100"/>
           <hs:ratio val="100"/>
           <hs:spacing val="0"/>
@@ -183,23 +230,11 @@
           <x:name val="맑은 고딕"/>
           <x:sz val="11"/>
           <x:color rgb="ffff0000"/>
-          <x:b val="1"/>
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="14"/>
-      <x:color rgb="ff000000"/>
-      <x:b val="1"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ffff0000"/>
-    </x:font>
   </x:fonts>
-  <x:fills count="6">
+  <x:fills count="7">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -227,6 +262,12 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="ffff00ff"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ff9be5c8"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
@@ -286,8 +327,8 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="27">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+  <x:cellXfs count="32">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -585,6 +626,71 @@
       <mc:Fallback>
         <x:xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="right" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="41" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="41" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1280,10 +1386,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:M4"/>
+  <x:dimension ref="A1:M5"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="L7" activeCellId="0" sqref="L7:L7"/>
+    <x:sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="L9" activeCellId="0" sqref="L9:L9"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -1301,108 +1407,130 @@
     <x:col min="13" max="13" width="35.80078125" style="2" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="2:13" ht="20.649999999999999">
-      <x:c r="B1" s="17" t="s">
+    <x:row r="1" spans="1:13" s="27" customFormat="1">
+      <x:c r="A1" s="15"/>
+      <x:c r="B1" s="28" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C1" s="29" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D1" s="29" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E1" s="29" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F1" s="29" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G1" s="29" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="29" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I1" s="29" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="J1" s="30" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K1" s="31" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="L1" s="31" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M1" s="29" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="2:13" ht="20.649999999999999">
+      <x:c r="B2" s="17" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="C1" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D1" s="4" t="s">
+      <x:c r="C2" s="3" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D2" s="4" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E2" s="4" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F2" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G2" s="4" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H2" s="4" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I2" s="4" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="J2" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="K2" s="21" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="L2" s="21" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="M2" s="8" t="s">
         <x:v>8</x:v>
-      </x:c>
-      <x:c r="E1" s="4" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F1" s="4" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G1" s="4" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H1" s="4" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="I1" s="4" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="J1" s="4" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="K1" s="21" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="L1" s="21" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="M1" s="8" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:13" ht="17.800000000000001">
-      <x:c r="A2" s="16" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B2" s="19" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C2" s="11" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D2" s="12" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E2" s="13" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F2" s="13" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G2" s="13" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H2" s="13" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="I2" s="13">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="J2" s="13" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="K2" s="23">
-        <x:v>45000</x:v>
-      </x:c>
-      <x:c r="L2" s="25">
-        <x:v>20000</x:v>
-      </x:c>
-      <x:c r="M2" s="14" t="s">
-        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:13" ht="17.800000000000001">
-      <x:c r="A3" s="15">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B3" s="20"/>
-      <x:c r="C3" s="6"/>
-      <x:c r="D3" s="10"/>
-      <x:c r="E3" s="5"/>
-      <x:c r="F3" s="5"/>
-      <x:c r="G3" s="5"/>
-      <x:c r="H3" s="5"/>
-      <x:c r="I3" s="5"/>
-      <x:c r="J3" s="5"/>
-      <x:c r="K3" s="24"/>
-      <x:c r="L3" s="26"/>
-      <x:c r="M3" s="9"/>
+      <x:c r="A3" s="16" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B3" s="19" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C3" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D3" s="12" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E3" s="13" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F3" s="13" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G3" s="13" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H3" s="13" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I3" s="13">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="J3" s="13" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K3" s="23">
+        <x:v>45000</x:v>
+      </x:c>
+      <x:c r="L3" s="25">
+        <x:v>20000</x:v>
+      </x:c>
+      <x:c r="M3" s="14" t="s">
+        <x:v>21</x:v>
+      </x:c>
     </x:row>
     <x:row r="4" spans="1:13" ht="17.800000000000001">
       <x:c r="A4" s="15">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B4" s="20"/>
-      <x:c r="C4" s="7"/>
+      <x:c r="C4" s="6"/>
       <x:c r="D4" s="10"/>
       <x:c r="E4" s="5"/>
       <x:c r="F4" s="5"/>
@@ -1414,8 +1542,25 @@
       <x:c r="L4" s="26"/>
       <x:c r="M4" s="9"/>
     </x:row>
+    <x:row r="5" spans="1:13" ht="17.800000000000001">
+      <x:c r="A5" s="15">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B5" s="20"/>
+      <x:c r="C5" s="7"/>
+      <x:c r="D5" s="10"/>
+      <x:c r="E5" s="5"/>
+      <x:c r="F5" s="5"/>
+      <x:c r="G5" s="5"/>
+      <x:c r="H5" s="5"/>
+      <x:c r="I5" s="5"/>
+      <x:c r="J5" s="5"/>
+      <x:c r="K5" s="24"/>
+      <x:c r="L5" s="26"/>
+      <x:c r="M5" s="9"/>
+    </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/Server/public/Product.xlsx
+++ b/Server/public/Product.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8592"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="17580" windowHeight="6696"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -21,106 +21,106 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <x:si>
+    <x:t>3FOLPK05571L (해당 브랜드에 등록된 스타일 코드)</x:t>
+  </x:si>
+  <x:si>
     <x:t>org_price</x:t>
   </x:si>
   <x:si>
+    <x:t>제품 이미지 URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tag_price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>image_url</x:t>
+  </x:si>
+  <x:si>
     <x:t>category</x:t>
   </x:si>
   <x:si>
-    <x:t>3FOLPK05571L (해당 브랜드에 등록된 스타일 코드)</x:t>
+    <x:t>스타일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브랜드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시즌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬러</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사이즈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>brand</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카테고리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>season</x:t>
+  </x:si>
+  <x:si>
+    <x:t>size</x:t>
+  </x:si>
+  <x:si>
+    <x:t>degree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>color</x:t>
   </x:si>
   <x:si>
     <x:t>style</x:t>
   </x:si>
   <x:si>
-    <x:t>size</x:t>
-  </x:si>
-  <x:si>
-    <x:t>image_url</x:t>
+    <x:t>barcode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROSE PINK  (졔품컬러)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미등록시 제품사진이 보이지않음</x:t>
   </x:si>
   <x:si>
     <x:t>product_name</x:t>
   </x:si>
   <x:si>
-    <x:t>카테고리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품 이미지 URL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시즌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사이즈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스타일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬러</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브랜드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미등록시 제품사진이 보이지않음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ROSE PINK  (졔품컬러)</x:t>
+    <x:t>MLB (해당 브랜드)</x:t>
   </x:si>
   <x:si>
     <x:t>2021FW (해당 브랜드에 등록된  시즌 이름)</x:t>
   </x:si>
   <x:si>
-    <x:t>MLB (해당 브랜드)</x:t>
+    <x:t>36000291452 (바코드 넘버)</x:t>
   </x:si>
   <x:si>
     <x:t>의류 (해당 브랜드에 등록된 카테고리)</x:t>
   </x:si>
   <x:si>
-    <x:t>36000291452 (바코드 넘버)</x:t>
-  </x:si>
-  <x:si>
     <x:t>여성 롱 후드 플리스 원피스 필라델피아</x:t>
-  </x:si>
-  <x:si>
-    <x:t>color</x:t>
-  </x:si>
-  <x:si>
-    <x:t>barcode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>degree</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tag_price</x:t>
-  </x:si>
-  <x:si>
-    <x:t>brand</x:t>
-  </x:si>
-  <x:si>
-    <x:t>season</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -327,7 +327,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="32">
+  <x:cellXfs count="29">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -631,65 +631,26 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="41" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="41" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1388,8 +1349,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:M5"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="L9" activeCellId="0" sqref="L9:L9"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="D9" activeCellId="0" sqref="D9:D9"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -1407,113 +1368,112 @@
     <x:col min="13" max="13" width="35.80078125" style="2" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:13" s="27" customFormat="1">
-      <x:c r="A1" s="15"/>
+    <x:row r="1" spans="2:13" s="27" customFormat="1">
       <x:c r="B1" s="28" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C1" s="29" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D1" s="29" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E1" s="29" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C1" s="28" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D1" s="28" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E1" s="28" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F1" s="28" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="28" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H1" s="28" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I1" s="28" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J1" s="28" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="K1" s="28" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F1" s="29" t="s">
+      <x:c r="L1" s="28" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G1" s="29" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H1" s="29" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I1" s="29" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="J1" s="30" t="s">
+      <x:c r="M1" s="28" t="s">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="K1" s="31" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="L1" s="31" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M1" s="29" t="s">
-        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="2:13" ht="20.649999999999999">
       <x:c r="B2" s="17" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C2" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D2" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E2" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F2" s="4" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G2" s="4" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H2" s="4" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="C2" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D2" s="4" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E2" s="4" t="s">
+      <x:c r="I2" s="4" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J2" s="4" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="F2" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G2" s="4" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="H2" s="4" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="I2" s="4" t="s">
+      <x:c r="K2" s="21" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="J2" s="4" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="K2" s="21" t="s">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="L2" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="M2" s="8" t="s">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:13" ht="17.800000000000001">
       <x:c r="A3" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B3" s="19" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C3" s="11" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D3" s="12" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E3" s="13" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F3" s="13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G3" s="13" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H3" s="13" t="s">
         <x:v>26</x:v>
-      </x:c>
-      <x:c r="C3" s="11" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D3" s="12" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E3" s="13" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F3" s="13" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G3" s="13" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H3" s="13" t="s">
-        <x:v>22</x:v>
       </x:c>
       <x:c r="I3" s="13">
         <x:v>3</x:v>
       </x:c>
       <x:c r="J3" s="13" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="K3" s="23">
         <x:v>45000</x:v>
@@ -1522,7 +1482,7 @@
         <x:v>20000</x:v>
       </x:c>
       <x:c r="M3" s="14" t="s">
-        <x:v>21</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:13" ht="17.800000000000001">
